--- a/docs/Logboek.xlsx
+++ b/docs/Logboek.xlsx
@@ -22,7 +22,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
   <si>
-    <t xml:space="preserve">Datum</t>
+    <t xml:space="preserve">Date</t>
   </si>
   <si>
     <t xml:space="preserve">Activities Mark</t>
@@ -31,7 +31,7 @@
     <t xml:space="preserve">Activities Jeroen</t>
   </si>
   <si>
-    <t xml:space="preserve">Notitie</t>
+    <t xml:space="preserve">Notes</t>
   </si>
   <si>
     <t xml:space="preserve">Project plan</t>
@@ -233,7 +233,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+      <selection pane="topLeft" activeCell="D28" activeCellId="0" sqref="D27:E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
